--- a/excel/M1-S2/M1-S2-MAPI.xlsx
+++ b/excel/M1-S2/M1-S2-MAPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\bulletin-espi\backend\excel\M1-S2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1190B7-2774-4698-9DD6-899D9282B881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8713E249-D64C-457D-A11A-C59F501A5938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33795" yWindow="1995" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>UE 1 – Economie &amp; Gestion</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Montage d'une opération de logement</t>
+  </si>
+  <si>
+    <t>Appreciations</t>
   </si>
 </sst>
 </file>
@@ -641,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD32"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P32"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,9 +671,10 @@
     <col min="20" max="20" width="25.5546875" customWidth="1"/>
     <col min="21" max="21" width="31.77734375" customWidth="1"/>
     <col min="22" max="22" width="34.77734375" customWidth="1"/>
+    <col min="31" max="31" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,8 +743,9 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-    </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE1" s="3"/>
+    </row>
+    <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -831,8 +836,11 @@
       <c r="AD2" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE2" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -863,8 +871,9 @@
       <c r="AB3" s="12"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="12"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE3" s="12"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -895,8 +904,9 @@
       <c r="AB4" s="15"/>
       <c r="AC4" s="14"/>
       <c r="AD4" s="15"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE4" s="15"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -927,8 +937,9 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="12"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE5" s="12"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -959,8 +970,9 @@
       <c r="AB6" s="15"/>
       <c r="AC6" s="14"/>
       <c r="AD6" s="15"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE6" s="15"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -991,8 +1003,9 @@
       <c r="AB7" s="12"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="12"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE7" s="12"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1023,8 +1036,9 @@
       <c r="AB8" s="15"/>
       <c r="AC8" s="14"/>
       <c r="AD8" s="15"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE8" s="15"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -1055,8 +1069,9 @@
       <c r="AB9" s="12"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="12"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE9" s="12"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1087,8 +1102,9 @@
       <c r="AB10" s="15"/>
       <c r="AC10" s="14"/>
       <c r="AD10" s="15"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE10" s="15"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1119,8 +1135,9 @@
       <c r="AB11" s="12"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="12"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE11" s="12"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1151,8 +1168,9 @@
       <c r="AB12" s="15"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="15"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE12" s="15"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1183,8 +1201,9 @@
       <c r="AB13" s="12"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="12"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE13" s="12"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1215,8 +1234,9 @@
       <c r="AB14" s="15"/>
       <c r="AC14" s="14"/>
       <c r="AD14" s="15"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE14" s="15"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1247,8 +1267,9 @@
       <c r="AB15" s="12"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="12"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE15" s="12"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1279,8 +1300,9 @@
       <c r="AB16" s="15"/>
       <c r="AC16" s="14"/>
       <c r="AD16" s="15"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE16" s="15"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1311,8 +1333,9 @@
       <c r="AB17" s="12"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="12"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE17" s="12"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1343,8 +1366,9 @@
       <c r="AB18" s="15"/>
       <c r="AC18" s="14"/>
       <c r="AD18" s="15"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE18" s="15"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1375,8 +1399,9 @@
       <c r="AB19" s="12"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="12"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE19" s="12"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1407,8 +1432,9 @@
       <c r="AB20" s="15"/>
       <c r="AC20" s="14"/>
       <c r="AD20" s="15"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE20" s="15"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -1439,8 +1465,9 @@
       <c r="AB21" s="12"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="12"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE21" s="12"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1471,8 +1498,9 @@
       <c r="AB22" s="15"/>
       <c r="AC22" s="14"/>
       <c r="AD22" s="15"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE22" s="15"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -1503,8 +1531,9 @@
       <c r="AB23" s="12"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="12"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE23" s="12"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1535,8 +1564,9 @@
       <c r="AB24" s="15"/>
       <c r="AC24" s="14"/>
       <c r="AD24" s="15"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE24" s="15"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1567,8 +1597,9 @@
       <c r="AB25" s="12"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="12"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE25" s="12"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1599,8 +1630,9 @@
       <c r="AB26" s="15"/>
       <c r="AC26" s="14"/>
       <c r="AD26" s="15"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE26" s="15"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1631,8 +1663,9 @@
       <c r="AB27" s="12"/>
       <c r="AC27" s="17"/>
       <c r="AD27" s="12"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE27" s="12"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1663,8 +1696,9 @@
       <c r="AB28" s="15"/>
       <c r="AC28" s="14"/>
       <c r="AD28" s="15"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE28" s="15"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1695,8 +1729,9 @@
       <c r="AB29" s="12"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="12"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE29" s="12"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1727,8 +1762,9 @@
       <c r="AB30" s="15"/>
       <c r="AC30" s="14"/>
       <c r="AD30" s="15"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE30" s="15"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1759,8 +1795,9 @@
       <c r="AB31" s="12"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="12"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE31" s="12"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1791,6 +1828,7 @@
       <c r="AB32" s="15"/>
       <c r="AC32" s="14"/>
       <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C2 A4:C5 A7:C7">

--- a/excel/M1-S2/M1-S2-MAPI.xlsx
+++ b/excel/M1-S2/M1-S2-MAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\bulletin-espi\backend\excel\M1-S2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8713E249-D64C-457D-A11A-C59F501A5938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EFC87E-DD4B-4C06-96F4-0A88647FC948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33795" yWindow="1995" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Logement Social et Accession Sociale</t>
   </si>
   <si>
-    <t>Code Apprenant</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Appreciations</t>
+  </si>
+  <si>
+    <t>CodeApprenant</t>
   </si>
 </sst>
 </file>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,7 +727,7 @@
         <v>16</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>17</v>
@@ -747,97 +747,97 @@
     </row>
     <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="AE2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
